--- a/Stock/src/main/resources/layout/LayoutUnidad.xlsx
+++ b/Stock/src/main/resources/layout/LayoutUnidad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,37 +24,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Centimetro</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Pieza</t>
   </si>
   <si>
-    <t>pz</t>
-  </si>
-  <si>
-    <t>Kilo</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>Abreviatura</t>
+    <t>Bolsa</t>
+  </si>
+  <si>
+    <t>Botella</t>
+  </si>
+  <si>
+    <t>Caja</t>
+  </si>
+  <si>
+    <t>Centímetro</t>
+  </si>
+  <si>
+    <t>Cilindro</t>
+  </si>
+  <si>
+    <t>Cubeta</t>
+  </si>
+  <si>
+    <t>Galón</t>
+  </si>
+  <si>
+    <t>Gramo</t>
+  </si>
+  <si>
+    <t>Juego</t>
+  </si>
+  <si>
+    <t>Kilogramo</t>
+  </si>
+  <si>
+    <t>Kilometro</t>
+  </si>
+  <si>
+    <t>Litro</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Millar</t>
+  </si>
+  <si>
+    <t>Miligramo</t>
+  </si>
+  <si>
+    <t>Mililitro</t>
+  </si>
+  <si>
+    <t>Paquete</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>Porcion</t>
+  </si>
+  <si>
+    <t>Pulgada</t>
+  </si>
+  <si>
+    <t>Rollo</t>
+  </si>
+  <si>
+    <t>Tramo</t>
+  </si>
+  <si>
+    <t>Tubo</t>
+  </si>
+  <si>
+    <t>Tonelada</t>
+  </si>
+  <si>
+    <t>Unidad</t>
+  </si>
+  <si>
+    <t>Viaje</t>
+  </si>
+  <si>
+    <t>Volteo</t>
+  </si>
+  <si>
+    <t>Decibeles</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>pza</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>CLAVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +153,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,14 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,34 +485,250 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
